--- a/doc/dialog sources/first_press_conference.xlsx
+++ b/doc/dialog sources/first_press_conference.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
@@ -11,16 +11,13 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="114210" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
-    <t>Ха. Чем встретил меня космос? А чем встретила Колумба terra incognita? Чем встретили древних викингов берега Америки? Чем встретила Монголия Марко Поло? Ацтеки конкистадоров? Космос встретил меня новизной, спасительной для нашей планеты, для всех нас.</t>
-  </si>
-  <si>
     <t>message=1</t>
   </si>
   <si>
@@ -30,110 +27,119 @@
     <t>message=3</t>
   </si>
   <si>
-    <t>Конечно встречал. Или вы имеете в виду нечто большее? Фу!</t>
-  </si>
-  <si>
-    <t>*зал прорывает. Юную журналистку сметают в задние ряды, толпа резко хлынула к трибуне. Килмови хмурится* Господа! Хватит! Хватит! Я буду вынужден завершить конференцию досрочно!</t>
-  </si>
-  <si>
-    <t>*понемногу все снова стихает. Килмови снова тщательно отбирает человека, и теперь вопрос задает некий толстяк, выглядящий несколько менее презентабально* Джордж Зотов. Издание "Мировой голос". Каковы результаты ваших контактов с инопланетянами?</t>
-  </si>
-  <si>
     <t>Можно сказать, что мы приценились друг к другу… но не более того. Конечно же, мы уже планируем налаживать более прочные, стабильные связи, вполне возможно, что даже торговые. Это дело времени.</t>
   </si>
   <si>
-    <t>*Следующий. В лицо опять тычут микрофоном* А конфликты! Были ли конфликты?!</t>
-  </si>
-  <si>
-    <t>*Килмови вздымает руки вверх, но объективы камер уже направлены на тебя, и вопрос муссируется буквально всеми* Аврора! Пропавший корабль! Что вы скажете насчет него?!</t>
-  </si>
-  <si>
-    <t>Мне понятно ваше волнение за наших соотечественников. Могу вас обрадовать, мы наткнулись на след Авроры, и непременно будем идти по нему. Земляне своих не бросают, не так ли?</t>
-  </si>
-  <si>
-    <t>*Ты стоишь за трибуной, Килмови сбоку от тебя. Небольшая комната забита народом. Писк снимающих камер, и вспышки фотоаппаратов. Гул стоит ужасный. Килмови, уставший от всего этого, в конце концов машет руками, и стучит по трибуне* Господа, господа! Я требую тишины!</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>*Шум стихает только пару минут спустя. Вспышки и щелчки все еще раздаются то тут, то там, но это неизбежное зло. Килмови снова берет слово* Господа журналисты, должен вас предупредить, что мы не располагаем большим количеством времени. Я прошу вас отнестись к этому с пониманием. *шум, в котором явственно слышится одобрение. Немного порыскав глазами среди леса поднятых рук, Килмови жестом указывает на одну из них*</t>
-  </si>
-  <si>
-    <t>*Это девушка. Лет двадцать, может даже меньше. Грудь третьего размера и пиджак в обтяжку.* Блоггерская платформа "Империя"! Расскажите, чем встретил вас космос?! Вступалили вы в контакт с инопланетянами?!</t>
-  </si>
-  <si>
-    <t>Вы прямо так сразу, с места в карьер. Я смущен. Знаете, трудно сказать. Это не первый мой межпланетный перелет и потому я затрудняюсь дать ответ на ваш вопрос. Космос, такой незнакомый для вас, для меня стал уже привычным.</t>
-  </si>
-  <si>
-    <t>Трудно говорить только за себя. Ведь все мы на корабле - команда. И пусть я самый главный, и пусть ответственность на мне… Космос встретил нас многим - красотой, бесконечностью. Но, и это самое главное - возможностями. Это очень хорошее слово - возможности.  Для меня, для моей команды, для всей Земли.</t>
-  </si>
-  <si>
-    <t>*девушка активно жестикулирует. Грудь слегка трясется.* А второй! Второй мой вопрос!! Судя по информации, поступившей от Авроры, они встречали инопланетян!! А вы?! Если встречали, то как далеко зашли в развитии межпланетных отношений?!</t>
-  </si>
-  <si>
     <t>Да, мы вступали в контакт с инопланетянами. Пока их было не так уж и много, но общение задалось. Про развитие я, если честно, не понял.</t>
   </si>
   <si>
-    <t>Мы не одни во вселенной. Трудно сказать, хорошо это или плохо, но так оно и есть. И, вполне возможно, некоторые обычаи наших братьев по разуму покажутся нам странными, не знаю.</t>
-  </si>
-  <si>
     <t>Мне кажется, вы пересмотрели фильмов. Конкретизируйте свой вопрос.</t>
   </si>
   <si>
+    <t>Приходилось пострелять, конечно, но ничего серьезного. Бандитов, пиратов и прочих отщепенцев не любят даже в далеком космосе.</t>
+  </si>
+  <si>
+    <t>Это было… Надеюсь, больше мне в этом участвовать не придется.</t>
+  </si>
+  <si>
+    <t>*Ты стоишь за трибуной, Килмови — сбоку от тебя. Небольшая комната забита народом. Повсюду сверкают вспышки фотоаппаратов. Гул стоит ужасный. Килмови, уставший от всего этого, в конце концов начинает махать руками и стучать по трибуне.* Господа, господа! Я требую тишины!</t>
+  </si>
+  <si>
+    <t>*Шум стихает только пару минут спустя. Вспышки и щелчки все еще раздаются то тут, то там, но это уже кажется неизбежным злом. Килмови снова берет слово.* Господа журналисты, должен вас предупредить, что мы не располагаем большим количеством времени. Я прошу вас отнестись к этому с пониманием. *Новая волна шума, в котором уже явственно слышится одобрение. Немного порыскав глазами среди леса поднятых рук, Килмови жестом указывает на одну из них.*</t>
+  </si>
+  <si>
+    <t>Вы прямо так сразу, с места в карьер. Я смущен. Знаете, трудно сказать. Это не первый мой межпланетный перелет, и потому я затрудняюсь дать ответ на ваш вопрос. Космос, такой незнакомый для вас, для меня стал уже привычным.</t>
+  </si>
+  <si>
+    <t>Трудно говорить только за себя. Ведь все мы на корабле — команда. И пусть я самый главный, и пусть ответственность на мне… Космос встретил нас многим — красотой, бесконечностью. А еще, и это самое главное, — возможностями. Это очень хорошее слово — возможности.  Для меня, для моей команды, для всей Земли.</t>
+  </si>
+  <si>
+    <t>Конечно, встречал. Или вы имеете в виду нечто большее? Фу!</t>
+  </si>
+  <si>
+    <t>Мы не одни во вселенной. Трудно сказать, хорошо это или плохо, но так оно есть. И, вполне возможно, некоторые обычаи наших братьев по разуму покажутся нам странными, не знаю.</t>
+  </si>
+  <si>
+    <t>*Зал прорывает. Юную журналистку сметают в задние ряды, толпа резко хлынула к трибуне. Килмови хмурится.* Господа! Хватит! Хватит! Я буду вынужден завершить конференцию досрочно!</t>
+  </si>
+  <si>
+    <t>Ничего особенного. Это были легкие, ничего не значащие сеансы обмена информацией. Мне кажется, им в какой-то мере на нас плевать. Не думаю, что так будет всегда, но пока все обстоит именно так.</t>
+  </si>
+  <si>
+    <t>Думаю, что утверждать что-то конкретное еще рано… Но, конечно, я постарался показать наш народ развитым и мирным, достойным длительного и плодотворного сотрудничества. Искренне надеюсь, что мне это удалось.</t>
+  </si>
+  <si>
+    <t>Да, безусловно. Колонизация иных планет — это то, что спасет Землю, и, вполне возможно, что так мы и поступим.</t>
+  </si>
+  <si>
+    <t>*Следующий. В лицо опять тычут микрофоном.* А конфликты! Были ли конфликты?!</t>
+  </si>
+  <si>
+    <t>Да. Выход есть. Я пока не могу сказать большего, но лично меня кризис уже не пугает. Вам бы я тоже советовал не падать духом.</t>
+  </si>
+  <si>
+    <t>Нет. Однако, те, кто перекует свои ружья на плуги и мотыги, будут возделывать поля тех, кто свои ружья не перековал. Надеюсь, вы меня поняли.</t>
+  </si>
+  <si>
+    <t>*Снова шум и гам. Трудно понять настрой народа, но этого и не требуется. Килмови выразительно смотрит на часы, в нескольких фразах прощается, после чего вы с ним выходите через боковую дверцу.*</t>
+  </si>
+  <si>
     <t>*журналист несколько смущен* Эм… Инопланетяне. К чему привело ваше с ними общение? Можем мы рассчитывать на долговременное сотрудничество?</t>
   </si>
   <si>
-    <t>Ничего особенного. Это были легкие, ничего не значащие, сеансы обмена информацией. Мне кажется, им в какой-то мере на нас плевать. Не думаю, что так будет всегда, но пока всё обстоит именно так.</t>
-  </si>
-  <si>
-    <t>Думаю, что утверждать что-то конкретное ещё рано… Но, конечно, я постарался показать наш народ развитым и мирным, достойным длительного и плодотворного сотрудничества. Искренне надеюсь, что мне это удалось.</t>
-  </si>
-  <si>
-    <t>*удовлетворенный пространным ответом, журналист отходит в сторону. Сразу же, буквально одновременно с одобрительным жестом Килмови, на тебя оказывается направлена камера* Прямой эфир! Добрый день дорогие друзья, сегодня мы находимся на пресс-конференции, посвященной возвращению корабля Аврора-2 из экспедиции! Времени у нас немного, поэтому не будем медлить. Капитан, планету все так же пожирает кризис. Вам удалось найти решение проблемы?</t>
-  </si>
-  <si>
-    <t>Да. Выход есть. Я пока не могу сказать большего, но лично меня кризис уже не пугает. Вам бы я тоже не советовал падать духом.</t>
-  </si>
-  <si>
-    <t>Да, безусловно. Колонизация иных планет - это то, что спасёт Землю, и, вполне возможно, что так мы и поступим.</t>
-  </si>
-  <si>
-    <t>Леди, вы слишком много взваливаете на Аврору-2. Мы просто люди, поймите. Однако,  некоторые варианты у нас уже есть.</t>
-  </si>
-  <si>
-    <t>Нет. Однако, те кто перекует свои ружья на плуги и мотыги, будут возделывать поля тех, кто свои ружья не перековал. Надеюсь, вы меня поняли.</t>
-  </si>
-  <si>
-    <t>Приходилось пострелять, конечно, но ничего серьезного. Бандитов, пиратов и прочих отщепенцев не любят даже в далеком космосе.</t>
-  </si>
-  <si>
-    <t>*Следующий вопрос возникает из никоткуда* Аврора-1! Что вы скажете насчет первой Авроры?!</t>
-  </si>
-  <si>
-    <t>*снова шум и гам. Трудно понять настрой народа, но этого и не требуется. Килмови выразительно смотрит на часы,  в нескольких фразах прощается, после чего вы с ним выходите через боковую дверцу*</t>
-  </si>
-  <si>
-    <t>Это было… Надеюсь, больше мне в этом участвовать не придется.</t>
-  </si>
-  <si>
-    <t>Моя задача - не искать Аврору. Моя задача - спасать планету. Заметьте, я говорю не  "людей", ведь тут масштабы гораздо большие. И если вы считаете, что мне стоило бросить все, и гоняться за призраками…</t>
-  </si>
-  <si>
-    <t>Я полагаю, что первостепенная задача моего корабля - поиск путей для выхода кризиса. Только найдя способ для спасения Земли, можно приступать к поискам Авроры. Я считаю что так будет правильно.</t>
-  </si>
-  <si>
     <t>*Килмови нехорошо улыбается* И не надейся.</t>
+  </si>
+  <si>
+    <t>*Это девушка. Лет двадцать, может даже меньше. Грудь третьего размера и пиджак в обтяжку.* Блогерская платформа «Империя»! Расскажите, чем встретил вас космос?! Вступали ли вы в контакт с инопланетянами?!</t>
+  </si>
+  <si>
+    <t>Ха. Чем встретил меня космос? А чем встретила Колумба «терра инкогнита»? Чем встретили древних викингов берега Америки? Чем встретила Монголия Марко Поло? Ацтеки — конкистадоров? Космос встретил меня новизной, спасительной для нашей планеты, для всех нас.</t>
+  </si>
+  <si>
+    <t>*Девушка активно жестикулирует. Грудь слегка трясется.* А второй! Второй мой вопрос!! Судя по информации, поступившей от «Авроры», они встречали инопланетян!! А вы?! Если встречали, то как далеко зашли в развитии межпланетных отношений?!</t>
+  </si>
+  <si>
+    <t>*Понемногу все снова стихает. Килмови вновь тщательно отбирает человека, и теперь вопрос задает некий толстяк, выглядящий несколько менее презентабально.* Джордж Зотов. Издание «Мировой голос». Каковы результаты ваших контактов с инопланетянами?</t>
+  </si>
+  <si>
+    <t>*Удовлетворенный пространным ответом, журналист отходит в сторону. Сразу же, буквально одновременно с одобрительным жестом Килмови, на тебя оказывается направлена камера.* Прямой эфир! Добрый день, дорогие друзья, сегодня мы находимся на пресс-конференции, посвященной возвращению корабля «Аврора-2» из экспедиции! Времени у нас немного, поэтому не будем медлить. Капитан, планету все так же пожирает кризис. Вам удалось найти решение проблемы?</t>
+  </si>
+  <si>
+    <t>Леди, вы слишком много взваливаете на «Аврору-2». Мы просто люди, поймите. Однако, некоторые варианты у нас уже есть.</t>
+  </si>
+  <si>
+    <t>*следующий вопрос возникает из ниоткуда* «Аврора-1»! Что вы скажете насчет первой «Авроры»?!</t>
+  </si>
+  <si>
+    <t>*Килмови вздымает руки вверх, но объективы камер уже направлены на тебя, и вопрос муссируется буквально всеми* «Аврора»! Пропавший корабль! Что вы скажете насчет него?!</t>
+  </si>
+  <si>
+    <t>Моя задача — не искать «Аврору». Моя задача — спасать планету. Заметьте, я говорю не «людей», ведь тут масштабы гораздо больше. И если вы считаете, что мне стоило бросить все и гоняться за призраками…</t>
+  </si>
+  <si>
+    <t>Я полагаю, что первостепенная задача моего корабля — поиск путей для выхода кризиса. Только найдя способ для спасения Земли, можно приступать к поискам «Авроры». Я считаю, что так будет правильно.</t>
+  </si>
+  <si>
+    <t>Мне понятно ваше волнение за наших соотечественников. Могу вас обрадовать: мы наткнулись на след «Авроры» и непременно будем идти по нему. Земляне своих не бросают, не так ли?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -174,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +220,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,7 +290,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,14 +466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1"/>
-    <col min="2" max="2" width="132.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="137.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="1"/>
     <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
@@ -479,12 +485,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -495,12 +501,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -511,40 +517,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -552,20 +558,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -573,7 +579,7 @@
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -584,12 +590,12 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -600,12 +606,12 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -616,12 +622,12 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -629,7 +635,7 @@
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
@@ -637,7 +643,7 @@
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
@@ -648,12 +654,12 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>8</v>
@@ -661,7 +667,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>8</v>
@@ -669,7 +675,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>8</v>
@@ -680,12 +686,12 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -693,7 +699,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>9</v>
@@ -704,12 +710,12 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -720,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30">
@@ -741,7 +747,7 @@
     </row>
     <row r="33" spans="1:3" ht="30">
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>11</v>
@@ -752,12 +758,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
         <v>12</v>
@@ -768,20 +774,21 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -791,11 +798,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -807,11 +812,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
